--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Tata Consultancy Services Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Tata Consultancy Services Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\OneDrive\Desktop\Kishan\Contractzy\WebScrapping\Tutorial\Financial_Data\MoneyControl\Companies\IT Services &amp; Consulting\Tata Consultancy Services Ltd\Pruned_Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADF506B-D732-4A16-8A7A-217C40D941A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -169,8 +175,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,13 +239,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -277,7 +291,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -311,6 +325,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -345,9 +360,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -520,14 +536,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="52.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,7 +641,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -657,7 +679,7 @@
         <v>133.22</v>
       </c>
       <c r="M2">
-        <v>1143.36</v>
+        <v>1143.3599999999999</v>
       </c>
       <c r="N2">
         <v>5786.27</v>
@@ -705,13 +727,13 @@
         <v>552.13</v>
       </c>
       <c r="AC2">
-        <v>74.45999999999999</v>
+        <v>74.459999999999994</v>
       </c>
       <c r="AD2">
         <v>1150</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -794,7 +816,7 @@
         <v>1.17</v>
       </c>
       <c r="AB3">
-        <v>660.5599999999999</v>
+        <v>660.56</v>
       </c>
       <c r="AC3">
         <v>92.64</v>
@@ -803,7 +825,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -841,7 +863,7 @@
         <v>343.41</v>
       </c>
       <c r="M4">
-        <v>1237.12</v>
+        <v>1237.1199999999999</v>
       </c>
       <c r="N4">
         <v>10985.33</v>
@@ -886,7 +908,7 @@
         <v>0.51</v>
       </c>
       <c r="AB4">
-        <v>1125.39</v>
+        <v>1125.3900000000001</v>
       </c>
       <c r="AC4">
         <v>169.48</v>
@@ -895,7 +917,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -915,7 +937,7 @@
         <v>440.45</v>
       </c>
       <c r="G5">
-        <v>18974.17</v>
+        <v>18974.169999999998</v>
       </c>
       <c r="H5">
         <v>181.38</v>
@@ -939,10 +961,10 @@
         <v>13970.31</v>
       </c>
       <c r="O5">
-        <v>5003.86</v>
+        <v>5003.8599999999997</v>
       </c>
       <c r="P5">
-        <v>5003.86</v>
+        <v>5003.8599999999997</v>
       </c>
       <c r="Q5">
         <v>402.95</v>
@@ -969,7 +991,7 @@
         <v>46.07</v>
       </c>
       <c r="Y5">
-        <v>36.3</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="Z5">
         <v>8.83</v>
@@ -987,7 +1009,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -998,10 +1020,10 @@
         <v>2.08</v>
       </c>
       <c r="D6">
-        <v>22401.92</v>
+        <v>22401.919999999998</v>
       </c>
       <c r="E6">
-        <v>22401.92</v>
+        <v>22401.919999999998</v>
       </c>
       <c r="F6">
         <v>-456.24</v>
@@ -1028,13 +1050,13 @@
         <v>1847.12</v>
       </c>
       <c r="N6">
-        <v>16805.99</v>
+        <v>16805.990000000002</v>
       </c>
       <c r="O6">
-        <v>5139.69</v>
+        <v>5139.6899999999996</v>
       </c>
       <c r="P6">
-        <v>5139.69</v>
+        <v>5139.6899999999996</v>
       </c>
       <c r="Q6">
         <v>272.48</v>
@@ -1079,7 +1101,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1111,7 +1133,7 @@
         <v>7882.43</v>
       </c>
       <c r="K7">
-        <v>9.539999999999999</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="L7">
         <v>469.35</v>
@@ -1120,7 +1142,7 @@
         <v>1839.11</v>
       </c>
       <c r="N7">
-        <v>16856.17</v>
+        <v>16856.169999999998</v>
       </c>
       <c r="O7">
         <v>6370.38</v>
@@ -1129,7 +1151,7 @@
         <v>6370.38</v>
       </c>
       <c r="Q7">
-        <v>850.3200000000001</v>
+        <v>850.32</v>
       </c>
       <c r="R7">
         <v>-112.43</v>
@@ -1153,10 +1175,10 @@
         <v>28.71</v>
       </c>
       <c r="Y7">
-        <v>18.67</v>
+        <v>18.670000000000002</v>
       </c>
       <c r="Z7">
-        <v>5.06</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="AA7">
         <v>0.01</v>
@@ -1171,7 +1193,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1203,10 +1225,10 @@
         <v>10221.85</v>
       </c>
       <c r="K8">
-        <v>20.01</v>
+        <v>20.010000000000002</v>
       </c>
       <c r="L8">
-        <v>537.8200000000001</v>
+        <v>537.82000000000005</v>
       </c>
       <c r="M8">
         <v>2167.42</v>
@@ -1263,7 +1285,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1295,7 +1317,7 @@
         <v>14100.41</v>
       </c>
       <c r="K9">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="L9">
         <v>688.17</v>
@@ -1355,7 +1377,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1441,13 +1463,13 @@
         <v>4305.88</v>
       </c>
       <c r="AC10">
-        <v>712.1799999999999</v>
+        <v>712.18</v>
       </c>
       <c r="AD10">
         <v>2200</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1470,13 +1492,13 @@
         <v>67787.64</v>
       </c>
       <c r="H11">
-        <v>39.77</v>
+        <v>39.770000000000003</v>
       </c>
       <c r="I11">
         <v>16950.73</v>
       </c>
       <c r="J11">
-        <v>21466.56</v>
+        <v>21466.560000000001</v>
       </c>
       <c r="K11">
         <v>23.41</v>
@@ -1506,25 +1528,25 @@
         <v>5069.55</v>
       </c>
       <c r="T11">
-        <v>18474.92</v>
+        <v>18474.919999999998</v>
       </c>
       <c r="U11">
-        <v>18474.92</v>
+        <v>18474.919999999998</v>
       </c>
       <c r="V11">
-        <v>18474.92</v>
+        <v>18474.919999999998</v>
       </c>
       <c r="W11">
-        <v>94.15000000000001</v>
+        <v>94.15</v>
       </c>
       <c r="X11">
-        <v>94.15000000000001</v>
+        <v>94.15</v>
       </c>
       <c r="Y11">
         <v>31.4</v>
       </c>
       <c r="Z11">
-        <v>8.369999999999999</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="AA11">
         <v>0.02</v>
@@ -1539,12 +1561,12 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>40</v>
       </c>
       <c r="B12">
-        <v>73582.14999999999</v>
+        <v>73582.149999999994</v>
       </c>
       <c r="C12">
         <v>4.09</v>
@@ -1556,22 +1578,22 @@
         <v>73578.06</v>
       </c>
       <c r="F12">
-        <v>4466.73</v>
+        <v>4466.7299999999996</v>
       </c>
       <c r="G12">
-        <v>78044.78999999999</v>
+        <v>78044.789999999994</v>
       </c>
       <c r="H12">
         <v>64.62</v>
       </c>
       <c r="I12">
-        <v>19796.4</v>
+        <v>19796.400000000001</v>
       </c>
       <c r="J12">
         <v>27368.32</v>
       </c>
       <c r="K12">
-        <v>79.56999999999999</v>
+        <v>79.569999999999993</v>
       </c>
       <c r="L12">
         <v>1393.77</v>
@@ -1580,7 +1602,7 @@
         <v>5320.37</v>
       </c>
       <c r="N12">
-        <v>54023.2</v>
+        <v>54023.199999999997</v>
       </c>
       <c r="O12">
         <v>24021.59</v>
@@ -1589,7 +1611,7 @@
         <v>24549.97</v>
       </c>
       <c r="Q12">
-        <v>5208.15</v>
+        <v>5208.1499999999996</v>
       </c>
       <c r="R12">
         <v>14.7</v>
@@ -1631,7 +1653,7 @@
         <v>7900</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1723,7 +1745,7 @@
         <v>4350</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -1815,7 +1837,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -1907,7 +1929,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -1999,7 +2021,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -2091,7 +2113,7 @@
         <v>7300</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -2183,7 +2205,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -2275,7 +2297,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -2367,7 +2389,7 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>49</v>
       </c>
